--- a/02.Pandas/피벗테이블.xlsx
+++ b/02.Pandas/피벗테이블.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21705" windowHeight="11565"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="피벗데이터" sheetId="1" r:id="rId2"/>
   </sheets>
   <externalReferences>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="53">
   <si>
     <t>일자</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -163,12 +163,61 @@
     <t>화명점</t>
   </si>
   <si>
-    <t>화명점</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>노트북</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>행 레이블</t>
+  </si>
+  <si>
+    <t>가야점</t>
+  </si>
+  <si>
+    <t>기장점</t>
+  </si>
+  <si>
+    <t>남천점</t>
+  </si>
+  <si>
+    <t>대천점</t>
+  </si>
+  <si>
+    <t>민락점</t>
+  </si>
+  <si>
+    <t>부평점</t>
+  </si>
+  <si>
+    <t>서동점</t>
+  </si>
+  <si>
+    <t>장전점</t>
+  </si>
+  <si>
+    <t>좌천점</t>
+  </si>
+  <si>
+    <t>주례점</t>
+  </si>
+  <si>
+    <t>중동점</t>
+  </si>
+  <si>
+    <t>초량점</t>
+  </si>
+  <si>
+    <t>총합계</t>
+  </si>
+  <si>
+    <t>합계 : 금액</t>
+  </si>
+  <si>
+    <t>마우스</t>
+  </si>
+  <si>
+    <t>마우스패드(스틸)</t>
+  </si>
+  <si>
+    <t>합계 : 수량</t>
+  </si>
+  <si>
+    <t>합계 : 단가</t>
   </si>
 </sst>
 </file>
@@ -179,7 +228,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -276,117 +325,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFABABAB"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFABABAB"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFABABAB"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFABABAB"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFABABAB"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFABABAB"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFABABAB"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFABABAB"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFABABAB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFABABAB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFABABAB"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFABABAB"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -402,7 +340,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -424,31 +362,16 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -533,13 +456,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ezen" refreshedDate="44659.375757175927" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="57">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ezen" refreshedDate="44659.53179710648" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="56">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A2:H59" sheet="피벗데이터"/>
+    <worksheetSource ref="A2:H58" sheet="피벗데이터"/>
   </cacheSource>
   <cacheFields count="8">
-    <cacheField name="일자" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2015-01-07T00:00:00" maxDate="2017-01-01T00:00:00" count="50">
+    <cacheField name="일자" numFmtId="58">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2015-01-07T00:00:00" maxDate="2015-12-31T00:00:00" count="49">
         <d v="2015-10-30T00:00:00"/>
         <d v="2015-12-21T00:00:00"/>
         <d v="2015-06-14T00:00:00"/>
@@ -589,7 +512,6 @@
         <d v="2015-11-26T00:00:00"/>
         <d v="2015-01-16T00:00:00"/>
         <d v="2015-01-07T00:00:00"/>
-        <d v="2016-12-31T00:00:00"/>
       </sharedItems>
     </cacheField>
     <cacheField name="지점명" numFmtId="0">
@@ -624,19 +546,11 @@
         <s v="마우스"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="단가" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8000" maxValue="67000" count="7">
-        <n v="16000"/>
-        <n v="23000"/>
-        <n v="67000"/>
-        <n v="44000"/>
-        <n v="24500"/>
-        <n v="8000"/>
-        <n v="15000"/>
-      </sharedItems>
+    <cacheField name="단가" numFmtId="41">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8000" maxValue="67000"/>
     </cacheField>
-    <cacheField name="수량" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="1000" count="28">
+    <cacheField name="수량" numFmtId="41">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="75" count="27">
         <n v="50"/>
         <n v="46"/>
         <n v="44"/>
@@ -664,17 +578,16 @@
         <n v="45"/>
         <n v="43"/>
         <n v="63"/>
-        <n v="1000"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="금액" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="245000" maxValue="67000000"/>
+    <cacheField name="금액" numFmtId="41">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="245000" maxValue="5025000"/>
     </cacheField>
-    <cacheField name="입금액" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1005000"/>
+    <cacheField name="입금액" numFmtId="41">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="25000" maxValue="1005000"/>
     </cacheField>
-    <cacheField name="미수금액" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="5025000"/>
+    <cacheField name="미수금액" numFmtId="41">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="120000" maxValue="5025000"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -686,12 +599,12 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="57">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="56">
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <n v="16000"/>
     <x v="0"/>
     <n v="800000"/>
     <n v="675000"/>
@@ -701,7 +614,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="1"/>
+    <n v="23000"/>
     <x v="1"/>
     <n v="1058000"/>
     <n v="709000"/>
@@ -711,7 +624,7 @@
     <x v="2"/>
     <x v="0"/>
     <x v="2"/>
-    <x v="2"/>
+    <n v="67000"/>
     <x v="2"/>
     <n v="2948000"/>
     <n v="905000"/>
@@ -721,7 +634,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="3"/>
-    <x v="3"/>
+    <n v="44000"/>
     <x v="3"/>
     <n v="1628000"/>
     <n v="465000"/>
@@ -731,7 +644,7 @@
     <x v="4"/>
     <x v="1"/>
     <x v="2"/>
-    <x v="2"/>
+    <n v="67000"/>
     <x v="0"/>
     <n v="3350000"/>
     <n v="465000"/>
@@ -741,7 +654,7 @@
     <x v="5"/>
     <x v="1"/>
     <x v="2"/>
-    <x v="2"/>
+    <n v="67000"/>
     <x v="3"/>
     <n v="2479000"/>
     <n v="474000"/>
@@ -751,7 +664,7 @@
     <x v="6"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="4"/>
+    <n v="24500"/>
     <x v="4"/>
     <n v="1274000"/>
     <n v="511000"/>
@@ -761,7 +674,7 @@
     <x v="7"/>
     <x v="2"/>
     <x v="1"/>
-    <x v="1"/>
+    <n v="23000"/>
     <x v="5"/>
     <n v="943000"/>
     <n v="41950"/>
@@ -771,7 +684,7 @@
     <x v="8"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="0"/>
+    <n v="16000"/>
     <x v="6"/>
     <n v="784000"/>
     <n v="61800"/>
@@ -781,7 +694,7 @@
     <x v="9"/>
     <x v="2"/>
     <x v="5"/>
-    <x v="5"/>
+    <n v="8000"/>
     <x v="5"/>
     <n v="328000"/>
     <n v="73700"/>
@@ -791,7 +704,7 @@
     <x v="10"/>
     <x v="2"/>
     <x v="6"/>
-    <x v="6"/>
+    <n v="15000"/>
     <x v="0"/>
     <n v="750000"/>
     <n v="74200"/>
@@ -801,7 +714,7 @@
     <x v="11"/>
     <x v="3"/>
     <x v="3"/>
-    <x v="3"/>
+    <n v="44000"/>
     <x v="7"/>
     <n v="2596000"/>
     <n v="25000"/>
@@ -811,7 +724,7 @@
     <x v="12"/>
     <x v="3"/>
     <x v="4"/>
-    <x v="4"/>
+    <n v="24500"/>
     <x v="8"/>
     <n v="857500"/>
     <n v="34400"/>
@@ -821,7 +734,7 @@
     <x v="13"/>
     <x v="4"/>
     <x v="4"/>
-    <x v="4"/>
+    <n v="24500"/>
     <x v="9"/>
     <n v="1029000"/>
     <n v="281000"/>
@@ -831,7 +744,7 @@
     <x v="14"/>
     <x v="4"/>
     <x v="2"/>
-    <x v="2"/>
+    <n v="67000"/>
     <x v="0"/>
     <n v="3350000"/>
     <n v="305000"/>
@@ -841,7 +754,7 @@
     <x v="15"/>
     <x v="4"/>
     <x v="2"/>
-    <x v="2"/>
+    <n v="67000"/>
     <x v="6"/>
     <n v="3283000"/>
     <n v="309000"/>
@@ -851,7 +764,7 @@
     <x v="16"/>
     <x v="5"/>
     <x v="3"/>
-    <x v="3"/>
+    <n v="44000"/>
     <x v="10"/>
     <n v="2376000"/>
     <n v="74500"/>
@@ -861,7 +774,7 @@
     <x v="17"/>
     <x v="5"/>
     <x v="0"/>
-    <x v="0"/>
+    <n v="16000"/>
     <x v="11"/>
     <n v="928000"/>
     <n v="83000"/>
@@ -871,7 +784,7 @@
     <x v="18"/>
     <x v="5"/>
     <x v="1"/>
-    <x v="1"/>
+    <n v="23000"/>
     <x v="8"/>
     <n v="805000"/>
     <n v="91000"/>
@@ -881,7 +794,7 @@
     <x v="19"/>
     <x v="5"/>
     <x v="4"/>
-    <x v="4"/>
+    <n v="24500"/>
     <x v="7"/>
     <n v="1445500"/>
     <n v="94000"/>
@@ -891,7 +804,7 @@
     <x v="20"/>
     <x v="5"/>
     <x v="2"/>
-    <x v="2"/>
+    <n v="67000"/>
     <x v="12"/>
     <n v="4288000"/>
     <n v="99000"/>
@@ -901,7 +814,7 @@
     <x v="21"/>
     <x v="6"/>
     <x v="1"/>
-    <x v="1"/>
+    <n v="23000"/>
     <x v="8"/>
     <n v="805000"/>
     <n v="125000"/>
@@ -911,7 +824,7 @@
     <x v="22"/>
     <x v="6"/>
     <x v="4"/>
-    <x v="4"/>
+    <n v="24500"/>
     <x v="8"/>
     <n v="857500"/>
     <n v="127500"/>
@@ -921,7 +834,7 @@
     <x v="23"/>
     <x v="6"/>
     <x v="0"/>
-    <x v="0"/>
+    <n v="16000"/>
     <x v="5"/>
     <n v="656000"/>
     <n v="129000"/>
@@ -931,7 +844,7 @@
     <x v="24"/>
     <x v="6"/>
     <x v="5"/>
-    <x v="5"/>
+    <n v="8000"/>
     <x v="13"/>
     <n v="312000"/>
     <n v="149000"/>
@@ -941,7 +854,7 @@
     <x v="11"/>
     <x v="7"/>
     <x v="1"/>
-    <x v="1"/>
+    <n v="23000"/>
     <x v="14"/>
     <n v="1219000"/>
     <n v="389000"/>
@@ -951,7 +864,7 @@
     <x v="25"/>
     <x v="7"/>
     <x v="0"/>
-    <x v="0"/>
+    <n v="16000"/>
     <x v="15"/>
     <n v="880000"/>
     <n v="397000"/>
@@ -961,7 +874,7 @@
     <x v="26"/>
     <x v="7"/>
     <x v="4"/>
-    <x v="4"/>
+    <n v="24500"/>
     <x v="6"/>
     <n v="1200500"/>
     <n v="442000"/>
@@ -971,7 +884,7 @@
     <x v="27"/>
     <x v="7"/>
     <x v="4"/>
-    <x v="4"/>
+    <n v="24500"/>
     <x v="16"/>
     <n v="1249500"/>
     <n v="463000"/>
@@ -981,7 +894,7 @@
     <x v="28"/>
     <x v="8"/>
     <x v="4"/>
-    <x v="4"/>
+    <n v="24500"/>
     <x v="17"/>
     <n v="1592500"/>
     <m/>
@@ -991,7 +904,7 @@
     <x v="29"/>
     <x v="8"/>
     <x v="2"/>
-    <x v="2"/>
+    <n v="67000"/>
     <x v="18"/>
     <n v="5025000"/>
     <m/>
@@ -1001,7 +914,7 @@
     <x v="30"/>
     <x v="9"/>
     <x v="3"/>
-    <x v="3"/>
+    <n v="44000"/>
     <x v="19"/>
     <n v="1760000"/>
     <n v="165000"/>
@@ -1011,7 +924,7 @@
     <x v="31"/>
     <x v="9"/>
     <x v="2"/>
-    <x v="2"/>
+    <n v="67000"/>
     <x v="9"/>
     <n v="2814000"/>
     <n v="197000"/>
@@ -1021,7 +934,7 @@
     <x v="32"/>
     <x v="9"/>
     <x v="0"/>
-    <x v="0"/>
+    <n v="16000"/>
     <x v="20"/>
     <n v="960000"/>
     <n v="202000"/>
@@ -1031,7 +944,7 @@
     <x v="33"/>
     <x v="10"/>
     <x v="2"/>
-    <x v="2"/>
+    <n v="67000"/>
     <x v="2"/>
     <n v="2948000"/>
     <n v="205000"/>
@@ -1041,7 +954,7 @@
     <x v="34"/>
     <x v="10"/>
     <x v="1"/>
-    <x v="1"/>
+    <n v="23000"/>
     <x v="3"/>
     <n v="851000"/>
     <n v="211000"/>
@@ -1051,7 +964,7 @@
     <x v="23"/>
     <x v="10"/>
     <x v="3"/>
-    <x v="3"/>
+    <n v="44000"/>
     <x v="3"/>
     <n v="1628000"/>
     <n v="244000"/>
@@ -1061,7 +974,7 @@
     <x v="35"/>
     <x v="11"/>
     <x v="2"/>
-    <x v="2"/>
+    <n v="67000"/>
     <x v="7"/>
     <n v="3953000"/>
     <n v="105000"/>
@@ -1071,7 +984,7 @@
     <x v="36"/>
     <x v="11"/>
     <x v="4"/>
-    <x v="4"/>
+    <n v="24500"/>
     <x v="8"/>
     <n v="857500"/>
     <n v="120000"/>
@@ -1081,7 +994,7 @@
     <x v="37"/>
     <x v="11"/>
     <x v="6"/>
-    <x v="6"/>
+    <n v="15000"/>
     <x v="16"/>
     <n v="765000"/>
     <n v="123000"/>
@@ -1091,7 +1004,7 @@
     <x v="38"/>
     <x v="11"/>
     <x v="4"/>
-    <x v="4"/>
+    <n v="24500"/>
     <x v="21"/>
     <n v="245000"/>
     <n v="125000"/>
@@ -1101,7 +1014,7 @@
     <x v="39"/>
     <x v="12"/>
     <x v="2"/>
-    <x v="2"/>
+    <n v="67000"/>
     <x v="22"/>
     <n v="3819000"/>
     <n v="973000"/>
@@ -1111,7 +1024,7 @@
     <x v="40"/>
     <x v="12"/>
     <x v="1"/>
-    <x v="1"/>
+    <n v="23000"/>
     <x v="15"/>
     <n v="1265000"/>
     <n v="1005000"/>
@@ -1121,7 +1034,7 @@
     <x v="41"/>
     <x v="12"/>
     <x v="1"/>
-    <x v="1"/>
+    <n v="23000"/>
     <x v="3"/>
     <n v="851000"/>
     <m/>
@@ -1131,7 +1044,7 @@
     <x v="42"/>
     <x v="13"/>
     <x v="4"/>
-    <x v="4"/>
+    <n v="24500"/>
     <x v="23"/>
     <n v="1151500"/>
     <n v="155000"/>
@@ -1141,7 +1054,7 @@
     <x v="43"/>
     <x v="13"/>
     <x v="1"/>
-    <x v="1"/>
+    <n v="23000"/>
     <x v="15"/>
     <n v="1265000"/>
     <n v="155000"/>
@@ -1151,7 +1064,7 @@
     <x v="44"/>
     <x v="13"/>
     <x v="0"/>
-    <x v="0"/>
+    <n v="16000"/>
     <x v="24"/>
     <n v="720000"/>
     <n v="161000"/>
@@ -1161,7 +1074,7 @@
     <x v="45"/>
     <x v="14"/>
     <x v="4"/>
-    <x v="4"/>
+    <n v="24500"/>
     <x v="4"/>
     <n v="1274000"/>
     <n v="357000"/>
@@ -1171,7 +1084,7 @@
     <x v="21"/>
     <x v="14"/>
     <x v="2"/>
-    <x v="2"/>
+    <n v="67000"/>
     <x v="4"/>
     <n v="3484000"/>
     <n v="357000"/>
@@ -1181,7 +1094,7 @@
     <x v="44"/>
     <x v="14"/>
     <x v="4"/>
-    <x v="4"/>
+    <n v="24500"/>
     <x v="0"/>
     <n v="1225000"/>
     <n v="365000"/>
@@ -1191,7 +1104,7 @@
     <x v="9"/>
     <x v="15"/>
     <x v="0"/>
-    <x v="0"/>
+    <n v="16000"/>
     <x v="0"/>
     <n v="800000"/>
     <n v="317000"/>
@@ -1201,7 +1114,7 @@
     <x v="46"/>
     <x v="15"/>
     <x v="4"/>
-    <x v="4"/>
+    <n v="24500"/>
     <x v="25"/>
     <n v="1053500"/>
     <n v="320000"/>
@@ -1211,7 +1124,7 @@
     <x v="47"/>
     <x v="15"/>
     <x v="2"/>
-    <x v="2"/>
+    <n v="67000"/>
     <x v="26"/>
     <n v="4221000"/>
     <n v="325000"/>
@@ -1221,7 +1134,7 @@
     <x v="2"/>
     <x v="16"/>
     <x v="0"/>
-    <x v="0"/>
+    <n v="16000"/>
     <x v="7"/>
     <n v="944000"/>
     <n v="577000"/>
@@ -1231,7 +1144,7 @@
     <x v="48"/>
     <x v="16"/>
     <x v="0"/>
-    <x v="0"/>
+    <n v="16000"/>
     <x v="16"/>
     <n v="816000"/>
     <n v="614000"/>
@@ -1241,31 +1154,21 @@
     <x v="13"/>
     <x v="16"/>
     <x v="0"/>
-    <x v="0"/>
+    <n v="16000"/>
     <x v="20"/>
     <n v="960000"/>
     <n v="675000"/>
     <n v="285000"/>
-  </r>
-  <r>
-    <x v="49"/>
-    <x v="16"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="27"/>
-    <n v="67000000"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <location ref="A3:D69" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
-    <pivotField showAll="0">
-      <items count="51">
+    <pivotField numFmtId="58" showAll="0">
+      <items count="50">
         <item x="48"/>
         <item x="40"/>
         <item x="47"/>
@@ -1315,11 +1218,10 @@
         <item x="1"/>
         <item x="34"/>
         <item x="21"/>
-        <item x="49"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
       <items count="18">
         <item x="0"/>
         <item x="1"/>
@@ -1341,7 +1243,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="8">
         <item x="4"/>
         <item x="2"/>
@@ -1353,20 +1255,9 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="5"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="29">
+    <pivotField dataField="1" numFmtId="41" showAll="0"/>
+    <pivotField dataField="1" numFmtId="41" showAll="0">
+      <items count="28">
         <item x="21"/>
         <item x="8"/>
         <item x="3"/>
@@ -1394,14 +1285,236 @@
         <item x="12"/>
         <item x="17"/>
         <item x="18"/>
-        <item x="27"/>
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField dataField="1" numFmtId="41" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField numFmtId="41" showAll="0"/>
   </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="66">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="합계 : 단가" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="합계 : 수량" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="합계 : 금액" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -1674,132 +1787,984 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C20"/>
+  <dimension ref="A3:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.375" customWidth="1"/>
-    <col min="9" max="9" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5" customWidth="1"/>
-    <col min="18" max="18" width="7.375" customWidth="1"/>
-    <col min="19" max="22" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="7.375" customWidth="1"/>
-    <col min="26" max="29" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="35" width="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="43" max="52" width="4" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="3" width="12.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="9" width="9.625" customWidth="1"/>
+    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1"/>
+    <col min="12" max="13" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="8.5" customWidth="1"/>
+    <col min="17" max="18" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="8.5" customWidth="1"/>
+    <col min="21" max="21" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.625" customWidth="1"/>
+    <col min="23" max="25" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="8.5" customWidth="1"/>
+    <col min="28" max="28" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.625" customWidth="1"/>
+    <col min="30" max="30" width="8.5" customWidth="1"/>
+    <col min="31" max="31" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="8.5" customWidth="1"/>
+    <col min="34" max="34" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.5" customWidth="1"/>
+    <col min="36" max="39" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="8.5" customWidth="1"/>
+    <col min="42" max="44" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.5" customWidth="1"/>
+    <col min="46" max="48" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.5" customWidth="1"/>
+    <col min="50" max="50" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="10">
+        <v>106000</v>
+      </c>
+      <c r="C4" s="10">
+        <v>140</v>
+      </c>
+      <c r="D4" s="10">
+        <v>4806000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="10">
+        <v>67000</v>
+      </c>
+      <c r="C5" s="10">
+        <v>44</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2948000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="10">
+        <v>23000</v>
+      </c>
+      <c r="C6" s="10">
+        <v>46</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1058000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="10">
+        <v>16000</v>
+      </c>
+      <c r="C7" s="10">
+        <v>50</v>
+      </c>
+      <c r="D7" s="10">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="10">
+        <v>202500</v>
+      </c>
+      <c r="C8" s="10">
+        <v>176</v>
+      </c>
+      <c r="D8" s="10">
+        <v>8731000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="10">
+        <v>24500</v>
+      </c>
+      <c r="C9" s="10">
+        <v>52</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1274000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="10">
+        <v>134000</v>
+      </c>
+      <c r="C10" s="10">
+        <v>87</v>
+      </c>
+      <c r="D10" s="10">
+        <v>5829000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="10">
+        <v>44000</v>
+      </c>
+      <c r="C11" s="10">
+        <v>37</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1628000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="10">
+        <v>62000</v>
+      </c>
+      <c r="C12" s="10">
+        <v>181</v>
+      </c>
+      <c r="D12" s="10">
+        <v>2805000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="10">
+        <v>15000</v>
+      </c>
+      <c r="C13" s="10">
+        <v>50</v>
+      </c>
+      <c r="D13" s="10">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="10">
+        <v>8000</v>
+      </c>
+      <c r="C14" s="10">
+        <v>41</v>
+      </c>
+      <c r="D14" s="10">
+        <v>328000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="10">
+        <v>23000</v>
+      </c>
+      <c r="C15" s="10">
+        <v>41</v>
+      </c>
+      <c r="D15" s="10">
+        <v>943000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="10">
+        <v>16000</v>
+      </c>
+      <c r="C16" s="10">
+        <v>49</v>
+      </c>
+      <c r="D16" s="10">
+        <v>784000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="10">
+        <v>68500</v>
+      </c>
+      <c r="C17" s="10">
+        <v>94</v>
+      </c>
+      <c r="D17" s="10">
+        <v>3453500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="10">
+        <v>24500</v>
+      </c>
+      <c r="C18" s="10">
+        <v>35</v>
+      </c>
+      <c r="D18" s="10">
+        <v>857500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="10">
+        <v>44000</v>
+      </c>
+      <c r="C19" s="10">
+        <v>59</v>
+      </c>
+      <c r="D19" s="10">
+        <v>2596000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="10">
+        <v>158500</v>
+      </c>
+      <c r="C20" s="10">
+        <v>141</v>
+      </c>
+      <c r="D20" s="10">
+        <v>7662000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="10">
+        <v>24500</v>
+      </c>
+      <c r="C21" s="10">
+        <v>42</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1029000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="10">
+        <v>134000</v>
+      </c>
+      <c r="C22" s="10">
+        <v>99</v>
+      </c>
+      <c r="D22" s="10">
+        <v>6633000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="10">
+        <v>174500</v>
+      </c>
+      <c r="C23" s="10">
+        <v>270</v>
+      </c>
+      <c r="D23" s="10">
+        <v>9842500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="10">
+        <v>24500</v>
+      </c>
+      <c r="C24" s="10">
+        <v>59</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1445500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="10">
+        <v>67000</v>
+      </c>
+      <c r="C25" s="10">
+        <v>64</v>
+      </c>
+      <c r="D25" s="10">
+        <v>4288000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="10">
+        <v>44000</v>
+      </c>
+      <c r="C26" s="10">
+        <v>54</v>
+      </c>
+      <c r="D26" s="10">
+        <v>2376000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="10">
+        <v>23000</v>
+      </c>
+      <c r="C27" s="10">
+        <v>35</v>
+      </c>
+      <c r="D27" s="10">
+        <v>805000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="10">
+        <v>16000</v>
+      </c>
+      <c r="C28" s="10">
+        <v>58</v>
+      </c>
+      <c r="D28" s="10">
+        <v>928000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="10">
+        <v>71500</v>
+      </c>
+      <c r="C29" s="10">
+        <v>150</v>
+      </c>
+      <c r="D29" s="10">
+        <v>2630500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="10">
+        <v>24500</v>
+      </c>
+      <c r="C30" s="10">
+        <v>35</v>
+      </c>
+      <c r="D30" s="10">
+        <v>857500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="10">
+        <v>8000</v>
+      </c>
+      <c r="C31" s="10">
+        <v>39</v>
+      </c>
+      <c r="D31" s="10">
+        <v>312000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="10">
+        <v>23000</v>
+      </c>
+      <c r="C32" s="10">
+        <v>35</v>
+      </c>
+      <c r="D32" s="10">
+        <v>805000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="10">
+        <v>16000</v>
+      </c>
+      <c r="C33" s="10">
+        <v>41</v>
+      </c>
+      <c r="D33" s="10">
+        <v>656000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="10">
+        <v>88000</v>
+      </c>
+      <c r="C34" s="10">
+        <v>208</v>
+      </c>
+      <c r="D34" s="10">
+        <v>4549000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="10">
+        <v>49000</v>
+      </c>
+      <c r="C35" s="10">
+        <v>100</v>
+      </c>
+      <c r="D35" s="10">
+        <v>2450000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="10">
+        <v>23000</v>
+      </c>
+      <c r="C36" s="10">
+        <v>53</v>
+      </c>
+      <c r="D36" s="10">
+        <v>1219000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="10">
+        <v>16000</v>
+      </c>
+      <c r="C37" s="10">
+        <v>55</v>
+      </c>
+      <c r="D37" s="10">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="10">
+        <v>91500</v>
+      </c>
+      <c r="C38" s="10">
+        <v>140</v>
+      </c>
+      <c r="D38" s="10">
+        <v>6617500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="10">
+        <v>24500</v>
+      </c>
+      <c r="C39" s="10">
+        <v>65</v>
+      </c>
+      <c r="D39" s="10">
+        <v>1592500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="10">
+        <v>67000</v>
+      </c>
+      <c r="C40" s="10">
+        <v>75</v>
+      </c>
+      <c r="D40" s="10">
+        <v>5025000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="10">
+        <v>127000</v>
+      </c>
+      <c r="C41" s="10">
+        <v>142</v>
+      </c>
+      <c r="D41" s="10">
+        <v>5534000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="10">
+        <v>67000</v>
+      </c>
+      <c r="C42" s="10">
+        <v>42</v>
+      </c>
+      <c r="D42" s="10">
+        <v>2814000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="10">
+        <v>44000</v>
+      </c>
+      <c r="C43" s="10">
+        <v>40</v>
+      </c>
+      <c r="D43" s="10">
+        <v>1760000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="10">
+        <v>16000</v>
+      </c>
+      <c r="C44" s="10">
+        <v>60</v>
+      </c>
+      <c r="D44" s="10">
+        <v>960000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="10">
+        <v>134000</v>
+      </c>
+      <c r="C45" s="10">
+        <v>118</v>
+      </c>
+      <c r="D45" s="10">
+        <v>5427000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="10">
+        <v>67000</v>
+      </c>
+      <c r="C46" s="10">
+        <v>44</v>
+      </c>
+      <c r="D46" s="10">
+        <v>2948000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="10">
+        <v>44000</v>
+      </c>
+      <c r="C47" s="10">
+        <v>37</v>
+      </c>
+      <c r="D47" s="10">
+        <v>1628000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="10">
+        <v>23000</v>
+      </c>
+      <c r="C48" s="10">
+        <v>37</v>
+      </c>
+      <c r="D48" s="10">
+        <v>851000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="10">
+        <v>131000</v>
+      </c>
+      <c r="C49" s="10">
+        <v>155</v>
+      </c>
+      <c r="D49" s="10">
+        <v>5820500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="10">
+        <v>49000</v>
+      </c>
+      <c r="C50" s="10">
+        <v>45</v>
+      </c>
+      <c r="D50" s="10">
+        <v>1102500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="10">
+        <v>67000</v>
+      </c>
+      <c r="C51" s="10">
+        <v>59</v>
+      </c>
+      <c r="D51" s="10">
+        <v>3953000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="10">
+        <v>15000</v>
+      </c>
+      <c r="C52" s="10">
+        <v>51</v>
+      </c>
+      <c r="D52" s="10">
+        <v>765000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="10">
+        <v>113000</v>
+      </c>
+      <c r="C53" s="10">
+        <v>149</v>
+      </c>
+      <c r="D53" s="10">
+        <v>5935000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="10">
+        <v>67000</v>
+      </c>
+      <c r="C54" s="10">
+        <v>57</v>
+      </c>
+      <c r="D54" s="10">
+        <v>3819000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="10">
+        <v>46000</v>
+      </c>
+      <c r="C55" s="10">
+        <v>92</v>
+      </c>
+      <c r="D55" s="10">
+        <v>2116000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="10">
+        <v>63500</v>
+      </c>
+      <c r="C56" s="10">
+        <v>147</v>
+      </c>
+      <c r="D56" s="10">
+        <v>3136500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="10">
+        <v>24500</v>
+      </c>
+      <c r="C57" s="10">
+        <v>47</v>
+      </c>
+      <c r="D57" s="10">
+        <v>1151500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="10">
+        <v>23000</v>
+      </c>
+      <c r="C58" s="10">
+        <v>55</v>
+      </c>
+      <c r="D58" s="10">
+        <v>1265000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="10">
+        <v>16000</v>
+      </c>
+      <c r="C59" s="10">
+        <v>45</v>
+      </c>
+      <c r="D59" s="10">
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" s="10">
+        <v>116000</v>
+      </c>
+      <c r="C60" s="10">
+        <v>154</v>
+      </c>
+      <c r="D60" s="10">
+        <v>5983000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="10">
+        <v>49000</v>
+      </c>
+      <c r="C61" s="10">
+        <v>102</v>
+      </c>
+      <c r="D61" s="10">
+        <v>2499000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="10">
+        <v>67000</v>
+      </c>
+      <c r="C62" s="10">
+        <v>52</v>
+      </c>
+      <c r="D62" s="10">
+        <v>3484000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B63" s="10">
+        <v>107500</v>
+      </c>
+      <c r="C63" s="10">
+        <v>156</v>
+      </c>
+      <c r="D63" s="10">
+        <v>6074500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="10">
+        <v>24500</v>
+      </c>
+      <c r="C64" s="10">
+        <v>43</v>
+      </c>
+      <c r="D64" s="10">
+        <v>1053500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="10">
+        <v>67000</v>
+      </c>
+      <c r="C65" s="10">
+        <v>63</v>
+      </c>
+      <c r="D65" s="10">
+        <v>4221000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="10">
+        <v>16000</v>
+      </c>
+      <c r="C66" s="10">
+        <v>50</v>
+      </c>
+      <c r="D66" s="10">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" s="10">
+        <v>48000</v>
+      </c>
+      <c r="C67" s="10">
+        <v>170</v>
+      </c>
+      <c r="D67" s="10">
+        <v>2720000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="10">
+        <v>48000</v>
+      </c>
+      <c r="C68" s="10">
+        <v>170</v>
+      </c>
+      <c r="D68" s="10">
+        <v>2720000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B69" s="10">
+        <v>1863000</v>
+      </c>
+      <c r="C69" s="10">
+        <v>2691</v>
+      </c>
+      <c r="D69" s="10">
+        <v>91727500</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1815,10 +2780,10 @@
   <dimension ref="A2:N59"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="2" customWidth="1"/>
@@ -1829,7 +2794,7 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="21.75" customHeight="1">
+    <row r="2" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1856,7 +2821,7 @@
       </c>
       <c r="N2"/>
     </row>
-    <row r="3" spans="1:14" ht="21.75" customHeight="1">
+    <row r="3" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>42307</v>
       </c>
@@ -1884,7 +2849,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="21.75" customHeight="1">
+    <row r="4" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>42359</v>
       </c>
@@ -1913,7 +2878,7 @@
         <v>349000</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="21.75" customHeight="1">
+    <row r="5" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>42169</v>
       </c>
@@ -1942,7 +2907,7 @@
         <v>2043000</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="21.75" customHeight="1">
+    <row r="6" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>42067</v>
       </c>
@@ -1970,7 +2935,7 @@
         <v>1163000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="21.75" customHeight="1">
+    <row r="7" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>42172</v>
       </c>
@@ -1999,7 +2964,7 @@
         <v>2885000</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="21.75" customHeight="1">
+    <row r="8" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>42337</v>
       </c>
@@ -2028,7 +2993,7 @@
         <v>2005000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="21.75" customHeight="1">
+    <row r="9" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>42355</v>
       </c>
@@ -2057,7 +3022,7 @@
         <v>763000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="21.75" customHeight="1">
+    <row r="10" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>42155</v>
       </c>
@@ -2085,7 +3050,7 @@
         <v>901050</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="21.75" customHeight="1">
+    <row r="11" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>42221</v>
       </c>
@@ -2114,7 +3079,7 @@
         <v>722200</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="21.75" customHeight="1">
+    <row r="12" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>42034</v>
       </c>
@@ -2143,7 +3108,7 @@
         <v>254300</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="21.75" customHeight="1">
+    <row r="13" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>42248</v>
       </c>
@@ -2172,7 +3137,7 @@
         <v>675800</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="21.75" customHeight="1">
+    <row r="14" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>42083</v>
       </c>
@@ -2200,7 +3165,7 @@
         <v>2571000</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="21.75" customHeight="1">
+    <row r="15" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>42342</v>
       </c>
@@ -2229,7 +3194,7 @@
         <v>823100</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="21.75" customHeight="1">
+    <row r="16" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>42183</v>
       </c>
@@ -2257,7 +3222,7 @@
         <v>748000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="21.75" customHeight="1">
+    <row r="17" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>42148</v>
       </c>
@@ -2286,7 +3251,7 @@
         <v>3045000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="21.75" customHeight="1">
+    <row r="18" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>42024</v>
       </c>
@@ -2315,7 +3280,7 @@
         <v>2974000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="21.75" customHeight="1">
+    <row r="19" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>42264</v>
       </c>
@@ -2343,7 +3308,7 @@
         <v>2301500</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="21.75" customHeight="1">
+    <row r="20" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>42211</v>
       </c>
@@ -2372,7 +3337,7 @@
         <v>845000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="21.75" customHeight="1">
+    <row r="21" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>42098</v>
       </c>
@@ -2401,7 +3366,7 @@
         <v>714000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="21.75" customHeight="1">
+    <row r="22" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>42041</v>
       </c>
@@ -2430,7 +3395,7 @@
         <v>1351500</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="21.75" customHeight="1">
+    <row r="23" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>42287</v>
       </c>
@@ -2459,7 +3424,7 @@
         <v>4189000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="21.75" customHeight="1">
+    <row r="24" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>42368</v>
       </c>
@@ -2487,7 +3452,7 @@
         <v>680000</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="21.75" customHeight="1">
+    <row r="25" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>42164</v>
       </c>
@@ -2516,7 +3481,7 @@
         <v>730000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="21.75" customHeight="1">
+    <row r="26" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>42191</v>
       </c>
@@ -2545,7 +3510,7 @@
         <v>527000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="21.75" customHeight="1">
+    <row r="27" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>42267</v>
       </c>
@@ -2574,7 +3539,7 @@
         <v>163000</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="21.75" customHeight="1">
+    <row r="28" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>42083</v>
       </c>
@@ -2602,7 +3567,7 @@
         <v>830000</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="21.75" customHeight="1">
+    <row r="29" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>42201</v>
       </c>
@@ -2631,7 +3596,7 @@
         <v>483000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="21.75" customHeight="1">
+    <row r="30" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>42065</v>
       </c>
@@ -2660,7 +3625,7 @@
         <v>758500</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="21.75" customHeight="1">
+    <row r="31" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>42223</v>
       </c>
@@ -2689,7 +3654,7 @@
         <v>786500</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="21.75" customHeight="1">
+    <row r="32" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>42139</v>
       </c>
@@ -2715,7 +3680,7 @@
         <v>1592500</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="21.75" customHeight="1">
+    <row r="33" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>42283</v>
       </c>
@@ -2742,7 +3707,7 @@
         <v>5025000</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="21.75" customHeight="1">
+    <row r="34" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>42336</v>
       </c>
@@ -2770,7 +3735,7 @@
         <v>1595000</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="21.75" customHeight="1">
+    <row r="35" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>42216</v>
       </c>
@@ -2799,7 +3764,7 @@
         <v>2617000</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="21.75" customHeight="1">
+    <row r="36" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>42124</v>
       </c>
@@ -2828,7 +3793,7 @@
         <v>758000</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="21.75" customHeight="1">
+    <row r="37" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>42054</v>
       </c>
@@ -2856,7 +3821,7 @@
         <v>2743000</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="21.75" customHeight="1">
+    <row r="38" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>42365</v>
       </c>
@@ -2885,7 +3850,7 @@
         <v>640000</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="21.75" customHeight="1">
+    <row r="39" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>42191</v>
       </c>
@@ -2914,7 +3879,7 @@
         <v>1384000</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="21.75" customHeight="1">
+    <row r="40" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>42168</v>
       </c>
@@ -2942,7 +3907,7 @@
         <v>3848000</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="21.75" customHeight="1">
+    <row r="41" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>42246</v>
       </c>
@@ -2971,7 +3936,7 @@
         <v>737500</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="21.75" customHeight="1">
+    <row r="42" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>42104</v>
       </c>
@@ -3000,7 +3965,7 @@
         <v>642000</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="21.75" customHeight="1">
+    <row r="43" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42303</v>
       </c>
@@ -3029,7 +3994,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="21.75" customHeight="1">
+    <row r="44" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>42297</v>
       </c>
@@ -3057,7 +4022,7 @@
         <v>2846000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="21.75" customHeight="1">
+    <row r="45" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>42013</v>
       </c>
@@ -3086,7 +4051,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="21.75" customHeight="1">
+    <row r="46" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>42038</v>
       </c>
@@ -3113,7 +4078,7 @@
         <v>851000</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="21.75" customHeight="1">
+    <row r="47" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>42345</v>
       </c>
@@ -3141,7 +4106,7 @@
         <v>996500</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="21.75" customHeight="1">
+    <row r="48" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>42091</v>
       </c>
@@ -3170,7 +4135,7 @@
         <v>1110000</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="21.75" customHeight="1">
+    <row r="49" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>42277</v>
       </c>
@@ -3199,7 +4164,7 @@
         <v>559000</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="21.75" customHeight="1">
+    <row r="50" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>42217</v>
       </c>
@@ -3227,7 +4192,7 @@
         <v>917000</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="21.75" customHeight="1">
+    <row r="51" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>42368</v>
       </c>
@@ -3256,7 +4221,7 @@
         <v>3127000</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="21.75" customHeight="1">
+    <row r="52" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>42277</v>
       </c>
@@ -3285,7 +4250,7 @@
         <v>860000</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="21.75" customHeight="1">
+    <row r="53" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>42034</v>
       </c>
@@ -3313,7 +4278,7 @@
         <v>483000</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="21.75" customHeight="1">
+    <row r="54" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>42334</v>
       </c>
@@ -3342,7 +4307,7 @@
         <v>733500</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="21.75" customHeight="1">
+    <row r="55" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>42020</v>
       </c>
@@ -3371,7 +4336,7 @@
         <v>3896000</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="21.75" customHeight="1">
+    <row r="56" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>42169</v>
       </c>
@@ -3399,7 +4364,7 @@
         <v>367000</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="21.75" customHeight="1">
+    <row r="57" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>42011</v>
       </c>
@@ -3428,7 +4393,7 @@
         <v>202000</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="21.75" customHeight="1">
+    <row r="58" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>42183</v>
       </c>
@@ -3457,32 +4422,8 @@
         <v>285000</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="6">
-        <v>42735</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D59" s="2">
-        <v>67000</v>
-      </c>
-      <c r="E59" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F59" s="2">
-        <f t="shared" si="0"/>
-        <v>67000000</v>
-      </c>
-      <c r="G59" s="2">
-        <v>0</v>
-      </c>
-      <c r="H59" s="2">
-        <v>0</v>
-      </c>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
